--- a/data/trans_dic/P25C_R2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25C_R2_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.03735623610598643</v>
+        <v>0.03735623610598644</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.01293267054964029</v>
+        <v>0.01293267054964028</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03220695915446453</v>
+        <v>0.03220695915446452</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01688924638088923</v>
+        <v>0.01909432997323753</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01731870163330147</v>
+        <v>0.0170822875755332</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06714934923414261</v>
+        <v>0.06679980174446053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05513482705416885</v>
+        <v>0.07712920613043789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05624187835839078</v>
+        <v>0.05802757289929308</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.04231191097258864</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02846230660262769</v>
+        <v>0.0284623066026277</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008790092484793196</v>
+        <v>0.008481899425864459</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02243566235861437</v>
+        <v>0.02385959784967004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01874001500634127</v>
+        <v>0.01746266837469822</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03896969614870119</v>
+        <v>0.03683019945842948</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06626840993803762</v>
+        <v>0.07143310802015178</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04246237842574564</v>
+        <v>0.04329669438862756</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.01320600402309821</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04732598308679024</v>
+        <v>0.04732598308679026</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02655767698479144</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0</v>
+        <v>0.003875281849729562</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01491342459836004</v>
+        <v>0.0204920321302893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01311308622763772</v>
+        <v>0.01349755060850228</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0325157427981627</v>
+        <v>0.03595603743730172</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09608464301739937</v>
+        <v>0.09977372955196735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0468265792827303</v>
+        <v>0.04765899321424147</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02271399279736965</v>
+        <v>0.02271399279736964</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.03983620142344352</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01416761136622488</v>
+        <v>0.01425034469476134</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0268087337412303</v>
+        <v>0.0253463731310113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02201197330417043</v>
+        <v>0.02079407080917306</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03522584568882824</v>
+        <v>0.0335840267830978</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05778811711216707</v>
+        <v>0.06002161767622384</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03945824444703557</v>
+        <v>0.03748694259120759</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2975</v>
+        <v>3363</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3865</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11826</v>
+        <v>11765</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2594</v>
+        <v>3629</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12552</v>
+        <v>12950</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2923</v>
+        <v>2820</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4983</v>
+        <v>5300</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10393</v>
+        <v>9685</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12957</v>
+        <v>12246</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14720</v>
+        <v>15867</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23550</v>
+        <v>24013</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1426</v>
+        <v>1959</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3203</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4835</v>
+        <v>5346</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9185</v>
+        <v>9537</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11439</v>
+        <v>11642</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9312</v>
+        <v>9367</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9779</v>
+        <v>9245</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22498</v>
+        <v>21253</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23154</v>
+        <v>22075</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21079</v>
+        <v>21894</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40329</v>
+        <v>38314</v>
       </c>
     </row>
     <row r="20">
